--- a/src/test/resources/Countries.xlsx
+++ b/src/test/resources/Countries.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vfomiuk/IdeaProjects/OnlineVYTrackAutomationTestNG/src/test/resources/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -158,12 +158,19 @@
   </si>
   <si>
     <t>Lima</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -510,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE3AD6B-2764-CA44-8845-C5296D7C5983}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C16"/>
@@ -518,8 +525,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -529,6 +536,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -537,6 +547,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -545,6 +558,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -553,6 +569,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -561,6 +580,9 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -569,6 +591,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -577,6 +602,9 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -585,6 +613,9 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -593,6 +624,9 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -601,6 +635,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -609,6 +646,9 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -617,6 +657,9 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -625,6 +668,9 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -633,6 +679,9 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -641,6 +690,9 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -648,6 +700,9 @@
       </c>
       <c r="B16" t="s">
         <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -665,8 +720,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
